--- a/plot/comparision_deep_learning/result.xlsx
+++ b/plot/comparision_deep_learning/result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bioinfo\identify_essential_protein\EPViT\plot\comparision_deep_learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0E3B26-2143-4611-9F50-AA12C153D037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0569FC-6C53-4E6A-87E4-50CF1A043D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,7 +551,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -656,19 +656,19 @@
         <v>0.73699999999999999</v>
       </c>
       <c r="C5" s="2">
-        <v>0.50700000000000001</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="D5" s="2">
-        <v>0.186</v>
+        <v>0.222</v>
       </c>
       <c r="E5" s="2">
-        <v>0.27200000000000002</v>
+        <v>0.308</v>
       </c>
       <c r="F5" s="2">
-        <v>0.66100000000000003</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="G5" s="2">
-        <v>0.42399999999999999</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
